--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6375" yWindow="2880" windowWidth="20310" windowHeight="11820" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -20,6 +19,7 @@
   <fonts count="1">
     <font>
       <name val="Calibri"/>
+      <charset val="204"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -50,9 +50,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -125,9 +125,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -135,44 +135,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -199,14 +199,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -233,9 +251,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -244,166 +280,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -413,10 +425,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="F8:AG8"/>
+  <dimension ref="F8:AH10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -503,46 +515,303 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10.595819999999998</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2168.06561325576</t>
+          <t>10.595819999999998</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10.595819999999998</t>
+          <t>2081.5885802369653</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>0.00010463739990793222</t>
+          <t>10.595819999999998</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>10.595819999999998</t>
+          <t>0.00013424281848138845</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>0.1339600467028029</t>
+          <t>10.595819999999998</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>10.595819999999998</t>
+          <t>0.1143804071137893</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>0.1222460991265056</t>
+          <t>10.595819999999998</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>0.1041426094454389</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="F9" t="n">
+        <v>60</v>
+      </c>
+      <c r="G9" t="n">
+        <v>60</v>
+      </c>
+      <c r="H9" t="n">
+        <v>60</v>
+      </c>
+      <c r="I9" t="n">
+        <v>60</v>
+      </c>
+      <c r="J9" t="n">
+        <v>60</v>
+      </c>
+      <c r="K9" t="n">
+        <v>60</v>
+      </c>
+      <c r="L9" t="n">
+        <v>60</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>…..</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>…..</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>79.5</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>31.30</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.833</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>710</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>10.595819999999998</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>2081.5885802369653</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>10.595819999999998</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>0.00013424281848138845</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>10.595819999999998</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0.1143804071137893</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>10.595819999999998</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>0.121914429604807</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="F10" t="n">
+        <v>70</v>
+      </c>
+      <c r="G10" t="n">
+        <v>70</v>
+      </c>
+      <c r="H10" t="n">
+        <v>70</v>
+      </c>
+      <c r="I10" t="n">
+        <v>70</v>
+      </c>
+      <c r="J10" t="n">
+        <v>70</v>
+      </c>
+      <c r="K10" t="n">
+        <v>70</v>
+      </c>
+      <c r="L10" t="n">
+        <v>70</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>…..</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>…..</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>78.6</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>30.24</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.893</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>720</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>10.595819999999998</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>2142.535422290497</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>10.595819999999998</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>0.00016690173983737193</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>10.595819999999998</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>0.129429712649806</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>10.595819999999998</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0.1100798937341623</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/report/report.xlsx
+++ b/report/report.xlsx
@@ -467,55 +467,49 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>78.5</t>
+          <t>60.63</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>30.23</t>
+          <t>23.80</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.773</t>
+          <t>0.5556</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>700</v>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
+        <v>475</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.211350856747863</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.757494675506747</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0100278443055474</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0211266234398427</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -525,7 +519,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2081.5885802369653</t>
+          <t>300.00000005167027</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
@@ -535,7 +529,7 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>0.00013424281848138845</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
@@ -545,7 +539,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>0.1143804071137893</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -555,7 +549,7 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>0.1041426094454389</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -593,55 +587,49 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>79.5</t>
+          <t>77.01</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>31.30</t>
+          <t>30.23</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.833</t>
+          <t>0.7334</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>710</v>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
+        <v>481</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.219523484388595</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.764288409822134</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.00521054655092171</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0109775592383496</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -651,7 +639,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2081.5885802369653</t>
+          <t>300.0000000786644</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -661,7 +649,7 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>0.00013424281848138845</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -671,7 +659,7 @@
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>0.1143804071137893</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -681,31 +669,31 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>0.121914429604807</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="F10" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H10" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I10" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J10" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K10" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="L10" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -719,55 +707,49 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>89.89</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>30.24</t>
+          <t>35.29</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.893</t>
+          <t>0.8477</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>720</v>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.1</t>
-        </is>
+        <v>488</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.220012819491619</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.763956240794734</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.00515995872033024</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0108709809933171</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -777,7 +759,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2142.535422290497</t>
+          <t>300.000490483356</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
@@ -787,7 +769,7 @@
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>0.00016690173983737193</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
@@ -797,7 +779,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>0.129429712649806</t>
+          <t>8.454616340921336e-33</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -807,7 +789,7 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>0.1100798937341623</t>
+          <t>0.010871</t>
         </is>
       </c>
     </row>
